--- a/raw/cvp/allocations.xlsx
+++ b/raw/cvp/allocations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\data\CA\usbr\cvp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffh\OneDrive\Documents\UCDavis\data-surface-water\raw\cvp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BF6819-30A0-42DA-8540-E018F0E534D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC40CE-0B07-4347-9908-273E0BF09637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="3162" windowWidth="14400" windowHeight="7374" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allocations" sheetId="1" r:id="rId1"/>
@@ -532,161 +532,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR15"/>
+  <dimension ref="A1:AT15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
         <v>2019</v>
       </c>
-      <c r="C1">
+      <c r="E1">
         <v>2018</v>
       </c>
-      <c r="D1">
+      <c r="F1">
         <v>2017</v>
       </c>
-      <c r="E1">
+      <c r="G1">
         <v>2016</v>
       </c>
-      <c r="F1">
+      <c r="H1">
         <v>2015</v>
       </c>
-      <c r="G1">
+      <c r="I1">
         <v>2014</v>
       </c>
-      <c r="H1">
+      <c r="J1">
         <v>2013</v>
       </c>
-      <c r="I1">
+      <c r="K1">
         <v>2012</v>
       </c>
-      <c r="J1">
+      <c r="L1">
         <v>2011</v>
       </c>
-      <c r="K1">
+      <c r="M1">
         <v>2010</v>
       </c>
-      <c r="L1">
+      <c r="N1">
         <v>2009</v>
       </c>
-      <c r="M1">
+      <c r="O1">
         <v>2008</v>
       </c>
-      <c r="N1">
+      <c r="P1">
         <v>2007</v>
       </c>
-      <c r="O1">
+      <c r="Q1">
         <v>2006</v>
       </c>
-      <c r="P1">
+      <c r="R1">
         <v>2005</v>
       </c>
-      <c r="Q1">
+      <c r="S1">
         <v>2004</v>
       </c>
-      <c r="R1">
+      <c r="T1">
         <v>2003</v>
       </c>
-      <c r="S1">
+      <c r="U1">
         <v>2002</v>
       </c>
-      <c r="T1">
+      <c r="V1">
         <v>2001</v>
       </c>
-      <c r="U1">
+      <c r="W1">
         <v>2000</v>
       </c>
-      <c r="V1">
+      <c r="X1">
         <v>1999</v>
       </c>
-      <c r="W1">
+      <c r="Y1">
         <v>1998</v>
       </c>
-      <c r="X1">
+      <c r="Z1">
         <v>1997</v>
       </c>
-      <c r="Y1">
+      <c r="AA1">
         <v>1996</v>
       </c>
-      <c r="Z1">
+      <c r="AB1">
         <v>1995</v>
       </c>
-      <c r="AA1">
+      <c r="AC1">
         <v>1994</v>
       </c>
-      <c r="AB1">
+      <c r="AD1">
         <v>1993</v>
       </c>
-      <c r="AC1">
+      <c r="AE1">
         <v>1992</v>
       </c>
-      <c r="AD1">
+      <c r="AF1">
         <v>1991</v>
       </c>
-      <c r="AE1">
+      <c r="AG1">
         <v>1990</v>
       </c>
-      <c r="AF1">
+      <c r="AH1">
         <v>1989</v>
       </c>
-      <c r="AG1">
+      <c r="AI1">
         <v>1988</v>
       </c>
-      <c r="AH1">
+      <c r="AJ1">
         <v>1987</v>
       </c>
-      <c r="AI1">
+      <c r="AK1">
         <v>1986</v>
       </c>
-      <c r="AJ1">
+      <c r="AL1">
         <v>1985</v>
       </c>
-      <c r="AK1">
+      <c r="AM1">
         <v>1984</v>
       </c>
-      <c r="AL1">
+      <c r="AN1">
         <v>1983</v>
       </c>
-      <c r="AM1">
+      <c r="AO1">
         <v>1982</v>
       </c>
-      <c r="AN1">
+      <c r="AP1">
         <v>1981</v>
       </c>
-      <c r="AO1">
+      <c r="AQ1">
         <v>1980</v>
       </c>
-      <c r="AP1">
+      <c r="AR1">
         <v>1979</v>
       </c>
-      <c r="AQ1">
+      <c r="AS1">
         <v>1978</v>
       </c>
-      <c r="AR1">
+      <c r="AT1">
         <v>1977</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -695,35 +702,35 @@
         <v>100</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K2">
         <v>100</v>
       </c>
       <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
         <v>40</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>40</v>
       </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
       <c r="P2">
         <v>100</v>
       </c>
@@ -737,47 +744,47 @@
         <v>100</v>
       </c>
       <c r="T2">
+        <v>100</v>
+      </c>
+      <c r="U2">
+        <v>100</v>
+      </c>
+      <c r="V2">
         <v>60</v>
       </c>
-      <c r="U2">
-        <v>100</v>
-      </c>
-      <c r="V2">
-        <v>100</v>
-      </c>
       <c r="W2">
         <v>100</v>
       </c>
       <c r="X2">
+        <v>100</v>
+      </c>
+      <c r="Y2">
+        <v>100</v>
+      </c>
+      <c r="Z2">
         <v>90</v>
       </c>
-      <c r="Y2">
-        <v>100</v>
-      </c>
-      <c r="Z2">
-        <v>100</v>
-      </c>
       <c r="AA2">
+        <v>100</v>
+      </c>
+      <c r="AB2">
+        <v>100</v>
+      </c>
+      <c r="AC2">
         <v>35</v>
       </c>
-      <c r="AB2">
-        <v>100</v>
-      </c>
-      <c r="AC2">
+      <c r="AD2">
+        <v>100</v>
+      </c>
+      <c r="AE2">
         <v>25</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>25</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>50</v>
       </c>
-      <c r="AF2">
-        <v>100</v>
-      </c>
-      <c r="AG2">
-        <v>100</v>
-      </c>
       <c r="AH2">
         <v>100</v>
       </c>
@@ -809,18 +816,24 @@
         <v>100</v>
       </c>
       <c r="AR2">
+        <v>100</v>
+      </c>
+      <c r="AS2">
+        <v>100</v>
+      </c>
+      <c r="AT2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -829,17 +842,17 @@
         <v>100</v>
       </c>
       <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
         <v>25</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>50</v>
       </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
       <c r="J3">
         <v>100</v>
       </c>
@@ -847,16 +860,16 @@
         <v>100</v>
       </c>
       <c r="L3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -871,13 +884,13 @@
         <v>100</v>
       </c>
       <c r="T3">
+        <v>100</v>
+      </c>
+      <c r="U3">
+        <v>100</v>
+      </c>
+      <c r="V3">
         <v>85</v>
-      </c>
-      <c r="U3">
-        <v>100</v>
-      </c>
-      <c r="V3">
-        <v>95</v>
       </c>
       <c r="W3">
         <v>100</v>
@@ -892,26 +905,26 @@
         <v>95</v>
       </c>
       <c r="AA3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AB3">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AC3">
         <v>75</v>
       </c>
       <c r="AD3">
+        <v>100</v>
+      </c>
+      <c r="AE3">
+        <v>75</v>
+      </c>
+      <c r="AF3">
         <v>37.5</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>62.5</v>
       </c>
-      <c r="AF3">
-        <v>100</v>
-      </c>
-      <c r="AG3">
-        <v>100</v>
-      </c>
       <c r="AH3">
         <v>100</v>
       </c>
@@ -943,15 +956,21 @@
         <v>100</v>
       </c>
       <c r="AR3">
+        <v>100</v>
+      </c>
+      <c r="AS3">
+        <v>100</v>
+      </c>
+      <c r="AT3">
         <v>37.5</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -963,16 +982,16 @@
         <v>100</v>
       </c>
       <c r="F4">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J4">
         <v>100</v>
@@ -1026,7 +1045,7 @@
         <v>100</v>
       </c>
       <c r="AA4">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AB4">
         <v>100</v>
@@ -1034,13 +1053,19 @@
       <c r="AC4">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AD4">
+        <v>100</v>
+      </c>
+      <c r="AE4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -1052,16 +1077,16 @@
         <v>100</v>
       </c>
       <c r="F5">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J5">
         <v>100</v>
@@ -1115,7 +1140,7 @@
         <v>100</v>
       </c>
       <c r="AA5">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AB5">
         <v>100</v>
@@ -1124,13 +1149,13 @@
         <v>75</v>
       </c>
       <c r="AD5">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AE5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AF5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AG5">
         <v>100</v>
@@ -1166,18 +1191,24 @@
         <v>100</v>
       </c>
       <c r="AR5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="AS5">
+        <v>100</v>
+      </c>
+      <c r="AT5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1186,19 +1217,19 @@
         <v>100</v>
       </c>
       <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
         <v>25</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>50</v>
       </c>
-      <c r="H6">
-        <v>75</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
       <c r="J6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -1206,16 +1237,22 @@
       <c r="L6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1224,115 +1261,121 @@
         <v>100</v>
       </c>
       <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
         <v>25</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>50</v>
       </c>
-      <c r="H7">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8">
         <v>50</v>
       </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>20</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>40</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>80</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>45</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>10</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>40</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>50</v>
       </c>
-      <c r="O8">
-        <v>100</v>
-      </c>
-      <c r="P8">
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
         <v>85</v>
-      </c>
-      <c r="Q8">
-        <v>70</v>
-      </c>
-      <c r="R8">
-        <v>75</v>
       </c>
       <c r="S8">
         <v>70</v>
       </c>
       <c r="T8">
+        <v>75</v>
+      </c>
+      <c r="U8">
+        <v>70</v>
+      </c>
+      <c r="V8">
         <v>49</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>65</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>70</v>
       </c>
-      <c r="W8">
-        <v>100</v>
-      </c>
-      <c r="X8">
+      <c r="Y8">
+        <v>100</v>
+      </c>
+      <c r="Z8">
         <v>90</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>95</v>
       </c>
-      <c r="Z8">
-        <v>100</v>
-      </c>
-      <c r="AA8">
+      <c r="AB8">
+        <v>100</v>
+      </c>
+      <c r="AC8">
         <v>35</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>50</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>25</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>25</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>50</v>
       </c>
-      <c r="AF8">
-        <v>100</v>
-      </c>
-      <c r="AG8">
-        <v>100</v>
-      </c>
       <c r="AH8">
         <v>100</v>
       </c>
@@ -1364,60 +1407,66 @@
         <v>100</v>
       </c>
       <c r="AR8">
+        <v>100</v>
+      </c>
+      <c r="AS8">
+        <v>100</v>
+      </c>
+      <c r="AT8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
         <v>55</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>25</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>50</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>70</v>
       </c>
-      <c r="I9">
-        <v>75</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
       <c r="K9">
         <v>75</v>
       </c>
       <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>75</v>
+      </c>
+      <c r="N9">
         <v>60</v>
       </c>
-      <c r="M9">
-        <v>75</v>
-      </c>
-      <c r="N9">
-        <v>75</v>
-      </c>
       <c r="O9">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="P9">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q9">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R9">
         <v>100</v>
@@ -1426,16 +1475,16 @@
         <v>95</v>
       </c>
       <c r="T9">
+        <v>100</v>
+      </c>
+      <c r="U9">
+        <v>95</v>
+      </c>
+      <c r="V9">
         <v>77</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>90</v>
-      </c>
-      <c r="V9">
-        <v>95</v>
-      </c>
-      <c r="W9">
-        <v>100</v>
       </c>
       <c r="X9">
         <v>95</v>
@@ -1444,29 +1493,29 @@
         <v>100</v>
       </c>
       <c r="Z9">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA9">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AB9">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AC9">
         <v>75</v>
       </c>
       <c r="AD9">
+        <v>75</v>
+      </c>
+      <c r="AE9">
+        <v>75</v>
+      </c>
+      <c r="AF9">
         <v>37.5</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>62.5</v>
       </c>
-      <c r="AF9">
-        <v>100</v>
-      </c>
-      <c r="AG9">
-        <v>100</v>
-      </c>
       <c r="AH9">
         <v>100</v>
       </c>
@@ -1498,15 +1547,21 @@
         <v>100</v>
       </c>
       <c r="AR9">
+        <v>100</v>
+      </c>
+      <c r="AS9">
+        <v>100</v>
+      </c>
+      <c r="AT9">
         <v>37.5</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -1518,17 +1573,17 @@
         <v>100</v>
       </c>
       <c r="F10">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>75</v>
+      </c>
+      <c r="I10">
         <v>65</v>
       </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
       <c r="J10">
         <v>100</v>
       </c>
@@ -1581,21 +1636,27 @@
         <v>100</v>
       </c>
       <c r="AA10">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AB10">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AC10">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AD10">
+        <v>75</v>
+      </c>
+      <c r="AE10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1607,17 +1668,17 @@
         <v>100</v>
       </c>
       <c r="F11">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>75</v>
+      </c>
+      <c r="I11">
         <v>65</v>
       </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
       <c r="J11">
         <v>100</v>
       </c>
@@ -1670,7 +1731,7 @@
         <v>100</v>
       </c>
       <c r="AA11">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AB11">
         <v>100</v>
@@ -1679,13 +1740,13 @@
         <v>75</v>
       </c>
       <c r="AD11">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AE11">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AF11">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AG11">
         <v>100</v>
@@ -1721,10 +1782,16 @@
         <v>100</v>
       </c>
       <c r="AR11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="AS11">
+        <v>100</v>
+      </c>
+      <c r="AT11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1738,19 +1805,19 @@
         <v>100</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>85250</v>
-      </c>
-      <c r="H12">
-        <v>155000</v>
-      </c>
-      <c r="I12">
-        <v>155000</v>
       </c>
       <c r="J12">
         <v>155000</v>
@@ -1759,94 +1826,100 @@
         <v>155000</v>
       </c>
       <c r="L12">
+        <v>155000</v>
+      </c>
+      <c r="M12">
+        <v>155000</v>
+      </c>
+      <c r="N12">
         <v>18000</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>35000</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>45000</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>155000</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>43000</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>6</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>8</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>22</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>58</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>39</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>32</v>
       </c>
-      <c r="X12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="Z12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C13">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
         <v>88</v>
       </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>75</v>
-      </c>
       <c r="F13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>62</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>50</v>
       </c>
-      <c r="J13">
-        <v>100</v>
-      </c>
-      <c r="K13">
-        <v>100</v>
-      </c>
       <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13">
         <v>77</v>
       </c>
-      <c r="M13">
-        <v>100</v>
-      </c>
-      <c r="N13">
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="P13">
         <v>65</v>
       </c>
-      <c r="O13">
-        <v>100</v>
-      </c>
-      <c r="P13">
-        <v>100</v>
-      </c>
       <c r="Q13">
         <v>100</v>
       </c>
@@ -1878,26 +1951,26 @@
         <v>100</v>
       </c>
       <c r="AA13">
+        <v>100</v>
+      </c>
+      <c r="AB13">
+        <v>100</v>
+      </c>
+      <c r="AC13">
         <v>80</v>
       </c>
-      <c r="AB13">
-        <v>100</v>
-      </c>
-      <c r="AC13">
+      <c r="AD13">
+        <v>100</v>
+      </c>
+      <c r="AE13">
         <v>83</v>
       </c>
-      <c r="AD13">
-        <v>100</v>
-      </c>
-      <c r="AE13">
+      <c r="AF13">
+        <v>100</v>
+      </c>
+      <c r="AG13">
         <v>68</v>
       </c>
-      <c r="AF13">
-        <v>100</v>
-      </c>
-      <c r="AG13">
-        <v>100</v>
-      </c>
       <c r="AH13">
         <v>100</v>
       </c>
@@ -1929,31 +2002,37 @@
         <v>100</v>
       </c>
       <c r="AR13">
+        <v>100</v>
+      </c>
+      <c r="AS13">
+        <v>100</v>
+      </c>
+      <c r="AT13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
         <v>130000</v>
       </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
         <v>185000</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
         <v>0</v>
       </c>
@@ -1961,31 +2040,31 @@
         <v>0</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>20</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>15</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>18</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>40</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>100</v>
-      </c>
       <c r="P14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="S14">
         <v>8</v>
@@ -1994,43 +2073,43 @@
         <v>5</v>
       </c>
       <c r="U14">
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
         <v>17</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>20</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>10</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>60</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>58</v>
       </c>
-      <c r="Z14">
-        <v>100</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
       <c r="AB14">
+        <v>100</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
         <v>90</v>
       </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH14">
         <v>100</v>
@@ -2063,19 +2142,19 @@
         <v>100</v>
       </c>
       <c r="AR14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="AS14">
+        <v>100</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
       <c r="D15">
         <v>100</v>
       </c>
@@ -2197,6 +2276,12 @@
         <v>100</v>
       </c>
       <c r="AR15">
+        <v>100</v>
+      </c>
+      <c r="AS15">
+        <v>100</v>
+      </c>
+      <c r="AT15">
         <v>100</v>
       </c>
     </row>
@@ -2210,21 +2295,21 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.578125" customWidth="1"/>
+    <col min="5" max="5" width="10.578125" customWidth="1"/>
     <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2241,7 +2326,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2255,7 +2340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2269,7 +2354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2283,7 +2368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2294,7 +2379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2305,7 +2390,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2316,7 +2401,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2333,7 +2418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -2350,7 +2435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2367,7 +2452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -2384,7 +2469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2401,7 +2486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2418,7 +2503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2432,7 +2517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2443,7 +2528,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2457,7 +2542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2471,7 +2556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2488,7 +2573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2505,7 +2590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2522,7 +2607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2539,7 +2624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2556,7 +2641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2570,7 +2655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2587,7 +2672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2604,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2621,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2638,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2655,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2672,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2686,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2703,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2717,7 +2802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -2731,7 +2816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2748,7 +2833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2765,7 +2850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -2782,7 +2867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -2799,7 +2884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -2816,7 +2901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -2833,7 +2918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -2850,7 +2935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -2867,7 +2952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -2884,7 +2969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -2901,7 +2986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -2915,7 +3000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -2930,7 +3015,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C415">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C415">
     <sortCondition ref="A2:A415"/>
     <sortCondition ref="B2:B415"/>
     <sortCondition ref="C2:C415"/>

--- a/raw/cvp/allocations.xlsx
+++ b/raw/cvp/allocations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffh\OneDrive\Documents\UCDavis\data-surface-water\raw\cvp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC40CE-0B07-4347-9908-273E0BF09637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE45F8F-D8E3-4EF2-8B45-384885B623FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="3162" windowWidth="14400" windowHeight="7374" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allocations" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2154,6 +2154,12 @@
     <row r="15" spans="1:46" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>62</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
       </c>
       <c r="D15">
         <v>100</v>
